--- a/Calibration/Testing/Bennet_et_al_2019_Sides_et_al_VolatileCalc.xlsx
+++ b/Calibration/Testing/Bennet_et_al_2019_Sides_et_al_VolatileCalc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - University of Cambridge\!!!!!!PHD\Fissure8_MI_Work\MagmaSat\Model_Test_Final_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1972E9A1-E9DA-4B0A-98E1-794FF86738A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EB12630-6858-455C-8667-58DC98408F27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -201,9 +201,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,12 +221,6 @@
       <sz val="9"/>
       <color indexed="16"/>
       <name val="Geneva"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -315,7 +309,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -329,7 +323,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -339,7 +333,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -360,51 +354,51 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,10 +748,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEE8FDC-12AB-AC4E-AD7D-943540347F5B}">
   <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -926,7 +920,7 @@
         <v>99.556538911714867</v>
       </c>
       <c r="U2" s="8">
-        <f>B2/(T2/100)</f>
+        <f t="shared" ref="U2:U7" si="0">B2/(T2/100)</f>
         <v>50.5029011996523</v>
       </c>
       <c r="V2" s="9">
@@ -1015,11 +1009,11 @@
         <v>1231.2412636894474</v>
       </c>
       <c r="T3" s="5">
-        <f t="shared" ref="T3:T12" si="0">SUM(B3:Q3)</f>
+        <f t="shared" ref="T3:T12" si="1">SUM(B3:Q3)</f>
         <v>99.661174813345767</v>
       </c>
       <c r="U3" s="8">
-        <f>B3/(T3/100)</f>
+        <f t="shared" si="0"/>
         <v>49.779959750282288</v>
       </c>
       <c r="V3" s="9">
@@ -1108,19 +1102,19 @@
         <v>1221.4397529136177</v>
       </c>
       <c r="T4" s="5">
+        <f t="shared" si="1"/>
+        <v>99.613739853191518</v>
+      </c>
+      <c r="U4" s="8">
         <f t="shared" si="0"/>
-        <v>99.613739853191518</v>
-      </c>
-      <c r="U4" s="8">
-        <f>B4/(T4/100)</f>
         <v>50.099443147521384</v>
       </c>
       <c r="V4" s="9">
-        <f t="shared" ref="V3:V7" si="1">P4</f>
+        <f t="shared" ref="V4:V7" si="2">P4</f>
         <v>0.33788083561612087</v>
       </c>
       <c r="W4" s="8">
-        <f t="shared" ref="W4:W7" si="2">10000*Q4</f>
+        <f t="shared" ref="W4:W7" si="3">10000*Q4</f>
         <v>1983.8150818910021</v>
       </c>
       <c r="X4" s="6">
@@ -1201,19 +1195,19 @@
         <v>1256.5173480409708</v>
       </c>
       <c r="T5" s="5">
+        <f t="shared" si="1"/>
+        <v>99.722608318083687</v>
+      </c>
+      <c r="U5" s="8">
         <f t="shared" si="0"/>
-        <v>99.722608318083687</v>
-      </c>
-      <c r="U5" s="8">
-        <f>B5/(T5/100)</f>
         <v>47.855852460070558</v>
       </c>
       <c r="V5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1484409693208609</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93.574551285640837</v>
       </c>
       <c r="X5" s="6">
@@ -1298,15 +1292,15 @@
         <v>99.666872462096464</v>
       </c>
       <c r="U6" s="8">
-        <f>B6/(T6/100)</f>
+        <f t="shared" si="0"/>
         <v>46.965173735244463</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18497344867801449</v>
       </c>
       <c r="W6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>350.66056621424548</v>
       </c>
       <c r="X6" s="6">
@@ -1387,19 +1381,19 @@
         <v>1179.2290166240095</v>
       </c>
       <c r="T7" s="11">
+        <f t="shared" si="1"/>
+        <v>99.630520340876259</v>
+      </c>
+      <c r="U7" s="12">
         <f t="shared" si="0"/>
-        <v>99.630520340876259</v>
-      </c>
-      <c r="U7" s="12">
-        <f>B7/(T7/100)</f>
         <v>52.540928499163684</v>
       </c>
       <c r="V7" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52351130785209643</v>
       </c>
       <c r="W7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1467.0564535692586</v>
       </c>
       <c r="X7" s="14">
@@ -1481,11 +1475,11 @@
         <v>101.29261343500002</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" ref="U8:U12" si="3">B8/(T8/100)</f>
+        <f t="shared" ref="U8:U12" si="4">B8/(T8/100)</f>
         <v>48.818959569773874</v>
       </c>
       <c r="V8" s="19">
-        <f t="shared" ref="V8:V12" si="4">P8</f>
+        <f t="shared" ref="V8:V12" si="5">P8</f>
         <v>0.68</v>
       </c>
       <c r="W8" s="18">
@@ -1567,19 +1561,19 @@
         <v>1216.6079999999999</v>
       </c>
       <c r="T9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.42371808500003</v>
       </c>
       <c r="U9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.882874420612012</v>
       </c>
       <c r="V9" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68</v>
       </c>
       <c r="W9" s="18">
-        <f t="shared" ref="W9:W12" si="5">10000*Q9</f>
+        <f t="shared" ref="W9:W12" si="6">10000*Q9</f>
         <v>392.2</v>
       </c>
       <c r="X9" s="3">
@@ -1657,19 +1651,19 @@
         <v>1189.674</v>
       </c>
       <c r="T10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101.592497915</v>
       </c>
       <c r="U10" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.743756691003107</v>
       </c>
       <c r="V10" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66</v>
       </c>
       <c r="W10" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X10" s="3">
@@ -1747,19 +1741,19 @@
         <v>1181.433</v>
       </c>
       <c r="T11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.206652045</v>
       </c>
       <c r="U11" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.928887453481636</v>
       </c>
       <c r="V11" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
       <c r="W11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>721.54</v>
       </c>
       <c r="X11" s="3">
@@ -1837,19 +1831,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T12" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.69904874000001</v>
       </c>
       <c r="U12" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.484082147249076</v>
       </c>
       <c r="V12" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.53</v>
       </c>
       <c r="W12" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>493.84</v>
       </c>
       <c r="X12" s="3">
@@ -1929,19 +1923,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T13" s="24">
-        <f>SUM(B13:Q13)</f>
+        <f t="shared" ref="T13:T31" si="7">SUM(B13:Q13)</f>
         <v>100.74966474</v>
       </c>
       <c r="U13" s="25">
-        <f t="shared" ref="U13" si="6">B13/(T13/100)</f>
+        <f t="shared" ref="U13" si="8">B13/(T13/100)</f>
         <v>49.459221654577192</v>
       </c>
       <c r="V13" s="26">
-        <f t="shared" ref="V13" si="7">P13</f>
+        <f t="shared" ref="V13" si="9">P13</f>
         <v>0.53</v>
       </c>
       <c r="W13" s="25">
-        <f t="shared" ref="W13" si="8">10000*Q13</f>
+        <f t="shared" ref="W13" si="10">10000*Q13</f>
         <v>1000</v>
       </c>
       <c r="X13" s="3">
@@ -2021,19 +2015,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T14" s="24">
-        <f>SUM(B14:Q14)</f>
+        <f t="shared" si="7"/>
         <v>100.84966474000001</v>
       </c>
       <c r="U14" s="25">
-        <f t="shared" ref="U14:U15" si="9">B14/(T14/100)</f>
+        <f t="shared" ref="U14:U15" si="11">B14/(T14/100)</f>
         <v>49.410179129961868</v>
       </c>
       <c r="V14" s="26">
-        <f t="shared" ref="V14:V15" si="10">P14</f>
+        <f t="shared" ref="V14:V15" si="12">P14</f>
         <v>0.53</v>
       </c>
       <c r="W14" s="25">
-        <f t="shared" ref="W14:W15" si="11">10000*Q14</f>
+        <f t="shared" ref="W14:W15" si="13">10000*Q14</f>
         <v>2000</v>
       </c>
       <c r="X14" s="3">
@@ -2113,19 +2107,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T15" s="24">
-        <f>SUM(B15:Q15)</f>
+        <f t="shared" si="7"/>
         <v>100.94966474</v>
       </c>
       <c r="U15" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>49.361233767679373</v>
       </c>
       <c r="V15" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.53</v>
       </c>
       <c r="W15" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3000</v>
       </c>
       <c r="X15" s="3">
@@ -2197,7 +2191,7 @@
         <v>0.6</v>
       </c>
       <c r="Q16" s="24">
-        <f>1000/10^4</f>
+        <f t="shared" ref="Q16:Q24" si="14">1000/10^4</f>
         <v>0.1</v>
       </c>
       <c r="R16" s="24"/>
@@ -2205,19 +2199,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T16" s="24">
-        <f>SUM(B16:Q16)</f>
+        <f t="shared" si="7"/>
         <v>100.81966473999999</v>
       </c>
       <c r="U16" s="25">
-        <f t="shared" ref="U16:U17" si="12">B16/(T16/100)</f>
+        <f t="shared" ref="U16:U17" si="15">B16/(T16/100)</f>
         <v>49.424881672146697</v>
       </c>
       <c r="V16" s="26">
-        <f t="shared" ref="V16:V17" si="13">P16</f>
+        <f t="shared" ref="V16:V17" si="16">P16</f>
         <v>0.6</v>
       </c>
       <c r="W16" s="25">
-        <f t="shared" ref="W16:W17" si="14">10000*Q16</f>
+        <f t="shared" ref="W16:W17" si="17">10000*Q16</f>
         <v>1000</v>
       </c>
       <c r="X16" s="3">
@@ -2289,7 +2283,7 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="24">
-        <f>1000/10^4</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="R17" s="24"/>
@@ -2297,19 +2291,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T17" s="24">
-        <f>SUM(B17:Q17)</f>
+        <f t="shared" si="7"/>
         <v>101.01966474</v>
       </c>
       <c r="U17" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>49.327029671153909</v>
       </c>
       <c r="V17" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
       <c r="W17" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="X17" s="3">
@@ -2381,26 +2375,26 @@
         <v>1.3</v>
       </c>
       <c r="Q18" s="30">
-        <f>1000/10^4</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="S18" s="30">
         <v>1190.4780000000001</v>
       </c>
       <c r="T18" s="30">
-        <f>SUM(B18:Q18)</f>
+        <f t="shared" si="7"/>
         <v>101.51966474</v>
       </c>
       <c r="U18" s="31">
-        <f t="shared" ref="U18" si="15">B18/(T18/100)</f>
+        <f t="shared" ref="U18" si="18">B18/(T18/100)</f>
         <v>49.084086445339061</v>
       </c>
       <c r="V18" s="32">
-        <f t="shared" ref="V18" si="16">P18</f>
+        <f t="shared" ref="V18" si="19">P18</f>
         <v>1.3</v>
       </c>
       <c r="W18" s="31">
-        <f t="shared" ref="W18" si="17">10000*Q18</f>
+        <f t="shared" ref="W18" si="20">10000*Q18</f>
         <v>1000</v>
       </c>
       <c r="X18" s="33">
@@ -2472,7 +2466,7 @@
         <v>1.3</v>
       </c>
       <c r="Q19" s="24">
-        <f>1000/10^4</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="R19" s="24"/>
@@ -2480,19 +2474,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T19" s="24">
-        <f>SUM(B19:Q19)</f>
+        <f t="shared" si="7"/>
         <v>101.51966474</v>
       </c>
       <c r="U19" s="25">
-        <f t="shared" ref="U19" si="18">B19/(T19/100)</f>
+        <f t="shared" ref="U19" si="21">B19/(T19/100)</f>
         <v>48.099055611597556</v>
       </c>
       <c r="V19" s="26">
-        <f t="shared" ref="V19" si="19">P19</f>
+        <f t="shared" ref="V19" si="22">P19</f>
         <v>1.3</v>
       </c>
       <c r="W19" s="25">
-        <f t="shared" ref="W19" si="20">10000*Q19</f>
+        <f t="shared" ref="W19" si="23">10000*Q19</f>
         <v>1000</v>
       </c>
       <c r="X19" s="3">
@@ -2564,7 +2558,7 @@
         <v>1.3</v>
       </c>
       <c r="Q20" s="24">
-        <f>1000/10^4</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="R20" s="24"/>
@@ -2572,19 +2566,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T20" s="24">
-        <f>SUM(B20:Q20)</f>
+        <f t="shared" si="7"/>
         <v>101.51966474</v>
       </c>
       <c r="U20" s="25">
-        <f t="shared" ref="U20" si="21">B20/(T20/100)</f>
+        <f t="shared" ref="U20" si="24">B20/(T20/100)</f>
         <v>47.114024777856052</v>
       </c>
       <c r="V20" s="26">
-        <f t="shared" ref="V20" si="22">P20</f>
+        <f t="shared" ref="V20" si="25">P20</f>
         <v>1.3</v>
       </c>
       <c r="W20" s="25">
-        <f t="shared" ref="W20" si="23">10000*Q20</f>
+        <f t="shared" ref="W20" si="26">10000*Q20</f>
         <v>1000</v>
       </c>
       <c r="X20" s="3">
@@ -2656,7 +2650,7 @@
         <v>1.3</v>
       </c>
       <c r="Q21" s="24">
-        <f>1000/10^4</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="R21" s="24"/>
@@ -2664,19 +2658,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T21" s="24">
-        <f>SUM(B21:Q21)</f>
+        <f t="shared" si="7"/>
         <v>101.51966474</v>
       </c>
       <c r="U21" s="25">
-        <f t="shared" ref="U21" si="24">B21/(T21/100)</f>
+        <f t="shared" ref="U21" si="27">B21/(T21/100)</f>
         <v>46.128993944114555</v>
       </c>
       <c r="V21" s="26">
-        <f t="shared" ref="V21" si="25">P21</f>
+        <f t="shared" ref="V21" si="28">P21</f>
         <v>1.3</v>
       </c>
       <c r="W21" s="25">
-        <f t="shared" ref="W21" si="26">10000*Q21</f>
+        <f t="shared" ref="W21" si="29">10000*Q21</f>
         <v>1000</v>
       </c>
       <c r="X21" s="3">
@@ -2748,27 +2742,25 @@
         <v>1.3</v>
       </c>
       <c r="Q22" s="24">
-        <f>1000/10^4</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="R22" s="24"/>
-      <c r="S22" s="24">
-        <v>1190.4780000000001</v>
-      </c>
+      <c r="S22" s="24"/>
       <c r="T22" s="24">
-        <f>SUM(B22:Q22)</f>
+        <f t="shared" si="7"/>
         <v>101.51966474</v>
       </c>
       <c r="U22" s="25">
-        <f t="shared" ref="U22" si="27">B22/(T22/100)</f>
+        <f t="shared" ref="U22" si="30">B22/(T22/100)</f>
         <v>45.143963110373051</v>
       </c>
       <c r="V22" s="26">
-        <f t="shared" ref="V22" si="28">P22</f>
+        <f t="shared" ref="V22" si="31">P22</f>
         <v>1.3</v>
       </c>
       <c r="W22" s="25">
-        <f t="shared" ref="W22" si="29">10000*Q22</f>
+        <f t="shared" ref="W22" si="32">10000*Q22</f>
         <v>1000</v>
       </c>
       <c r="X22" s="3">
@@ -2840,26 +2832,26 @@
         <v>1.3</v>
       </c>
       <c r="Q23" s="30">
-        <f>1000/10^4</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="S23" s="30">
         <v>1190.4780000000001</v>
       </c>
       <c r="T23" s="30">
-        <f>SUM(B23:Q23)</f>
+        <f t="shared" si="7"/>
         <v>101.51966474</v>
       </c>
       <c r="U23" s="31">
-        <f t="shared" ref="U23" si="30">B23/(T23/100)</f>
+        <f t="shared" ref="U23" si="33">B23/(T23/100)</f>
         <v>44.158932276631546</v>
       </c>
       <c r="V23" s="32">
-        <f t="shared" ref="V23" si="31">P23</f>
+        <f t="shared" ref="V23" si="34">P23</f>
         <v>1.3</v>
       </c>
       <c r="W23" s="31">
-        <f t="shared" ref="W23" si="32">10000*Q23</f>
+        <f t="shared" ref="W23" si="35">10000*Q23</f>
         <v>1000</v>
       </c>
       <c r="X23" s="33">
@@ -2931,26 +2923,26 @@
         <v>0</v>
       </c>
       <c r="Q24" s="37">
-        <f>1000/10^4</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="S24" s="37">
         <v>1190.4780000000001</v>
       </c>
       <c r="T24" s="37">
-        <f>SUM(B24:Q24)</f>
+        <f t="shared" si="7"/>
         <v>100.21966474</v>
       </c>
       <c r="U24" s="38">
-        <f t="shared" ref="U24" si="33">B24/(T24/100)</f>
+        <f t="shared" ref="U24" si="36">B24/(T24/100)</f>
         <v>44.731740139325474</v>
       </c>
       <c r="V24" s="39">
-        <f t="shared" ref="V24" si="34">P24</f>
+        <f t="shared" ref="V24" si="37">P24</f>
         <v>0</v>
       </c>
       <c r="W24" s="38">
-        <f t="shared" ref="W24" si="35">10000*Q24</f>
+        <f t="shared" ref="W24" si="38">10000*Q24</f>
         <v>1000</v>
       </c>
       <c r="X24" s="3">
@@ -3028,19 +3020,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T25" s="37">
-        <f>SUM(B25:Q25)</f>
+        <f t="shared" si="7"/>
         <v>100.31966474000001</v>
       </c>
       <c r="U25" s="38">
-        <f t="shared" ref="U25" si="36">B25/(T25/100)</f>
+        <f t="shared" ref="U25" si="39">B25/(T25/100)</f>
         <v>44.687150935149745</v>
       </c>
       <c r="V25" s="39">
-        <f t="shared" ref="V25" si="37">P25</f>
+        <f t="shared" ref="V25" si="40">P25</f>
         <v>0</v>
       </c>
       <c r="W25" s="38">
-        <f t="shared" ref="W25" si="38">10000*Q25</f>
+        <f t="shared" ref="W25" si="41">10000*Q25</f>
         <v>2000</v>
       </c>
       <c r="X25" s="3">
@@ -3118,19 +3110,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T26" s="37">
-        <f>SUM(B26:Q26)</f>
+        <f t="shared" si="7"/>
         <v>100.41966474</v>
       </c>
       <c r="U26" s="38">
-        <f t="shared" ref="U26" si="39">B26/(T26/100)</f>
+        <f t="shared" ref="U26" si="42">B26/(T26/100)</f>
         <v>44.642650536696067</v>
       </c>
       <c r="V26" s="39">
-        <f t="shared" ref="V26" si="40">P26</f>
+        <f t="shared" ref="V26" si="43">P26</f>
         <v>0</v>
       </c>
       <c r="W26" s="38">
-        <f t="shared" ref="W26" si="41">10000*Q26</f>
+        <f t="shared" ref="W26" si="44">10000*Q26</f>
         <v>3000</v>
       </c>
       <c r="X26" s="3">
@@ -3208,19 +3200,19 @@
         <v>1190.4780000000001</v>
       </c>
       <c r="T27" s="44">
-        <f>SUM(B27:Q27)</f>
+        <f t="shared" si="7"/>
         <v>100.51966474000001</v>
       </c>
       <c r="U27" s="45">
-        <f t="shared" ref="U27:U30" si="42">B27/(T27/100)</f>
+        <f t="shared" ref="U27:U30" si="45">B27/(T27/100)</f>
         <v>44.598238678924581</v>
       </c>
       <c r="V27" s="46">
-        <f t="shared" ref="V27:V30" si="43">P27</f>
+        <f t="shared" ref="V27" si="46">P27</f>
         <v>0</v>
       </c>
       <c r="W27" s="45">
-        <f t="shared" ref="W27:W30" si="44">10000*Q27</f>
+        <f t="shared" ref="W27" si="47">10000*Q27</f>
         <v>4000</v>
       </c>
       <c r="X27" s="33">
@@ -3289,22 +3281,21 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="P28" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q28" s="17">
-        <f>1000/10^4</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="17">
         <v>1190.4780000000001</v>
       </c>
       <c r="T28" s="17">
-        <f>SUM(B28:Q28)</f>
-        <v>100.21966474</v>
+        <f t="shared" si="7"/>
+        <v>100.61966474</v>
       </c>
       <c r="U28" s="18">
-        <f t="shared" si="42"/>
-        <v>44.731740139325474</v>
+        <f t="shared" si="45"/>
+        <v>44.553915097849085</v>
       </c>
       <c r="V28" s="19">
         <v>0.5</v>
@@ -3378,21 +3369,21 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="P29" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S29" s="17">
         <v>1190.4780000000001</v>
       </c>
       <c r="T29" s="17">
-        <f>SUM(B29:Q29)</f>
-        <v>100.31966474000001</v>
+        <f t="shared" si="7"/>
+        <v>101.11966474</v>
       </c>
       <c r="U29" s="18">
-        <f t="shared" si="42"/>
-        <v>44.687150935149745</v>
+        <f t="shared" si="45"/>
+        <v>44.333612176491478</v>
       </c>
       <c r="V29" s="19">
         <v>1</v>
@@ -3466,21 +3457,21 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="P30" s="17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" s="17">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S30" s="17">
         <v>1190.4780000000001</v>
       </c>
       <c r="T30" s="17">
-        <f>SUM(B30:Q30)</f>
-        <v>100.41966474</v>
+        <f t="shared" si="7"/>
+        <v>101.61966474</v>
       </c>
       <c r="U30" s="18">
-        <f t="shared" si="42"/>
-        <v>44.642650536696067</v>
+        <f t="shared" si="45"/>
+        <v>44.115477171372518</v>
       </c>
       <c r="V30" s="19">
         <v>1.5</v>
@@ -3554,21 +3545,21 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="P31" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S31" s="17">
         <v>1190.4780000000001</v>
       </c>
       <c r="T31" s="17">
-        <f>SUM(B31:Q31)</f>
-        <v>100.51966474000001</v>
+        <f t="shared" si="7"/>
+        <v>102.11966474</v>
       </c>
       <c r="U31" s="18">
-        <f t="shared" ref="U31" si="45">B31/(T31/100)</f>
-        <v>44.598238678924581</v>
+        <f t="shared" ref="U31" si="48">B31/(T31/100)</f>
+        <v>43.899478238729671</v>
       </c>
       <c r="V31" s="19">
         <v>2</v>
